--- a/dat/886842197088022608/독충의밤.xlsx
+++ b/dat/886842197088022608/독충의밤.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
   <si>
     <t>그 때, 밖에서 경비원이 누군가를 데려 왔다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -144,11 +144,6 @@
   </si>
   <si>
     <t>최종 투표 시간(2분)이 되었습니다. 플레이어들은 진행자에게 최종적으로 지목할 범인의 이름을 전달해 주십시오.</t>
-  </si>
-  <si>
-    <t>용의자 장할배가 자백하기 시작했다.
-저는 18년 전, 제 아들의 원수인 김리더와, 그의 부인을 죽였습니다. 하지만, 아무 죄 없는 아이들을 마주했을 때, 저 또한 누군가의 소중한 가족을 해쳤다는 사실을 깨닫고 아이들에겐 감히 손대지 못하고 도망쳐 나왔습니다. 이후 숨어 살던 저는, 염치없지만 고아가 된 그 아이들이 잘 지낼지 걱정이 되었고, 그래서 아이들을 찾아 아이들이 입양된 곳을 찾아갔습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>그리고 그 곳에서 학대당하고 있는 아이들을 보게 되었고, 3남매중 살아남은 아이들을 젊은 여자와 함께 구출해 냈습니다. 그 사건 이후 어린 막내는 다시 입양되었지만 학생이를 다시 입양하고자 하는 사람은 없었고, 저는 학생이를 제가 거두어서 잘 키워야겠다는 생각을 하게 되었습니다.</t>
@@ -273,6 +268,23 @@
   </si>
   <si>
     <t>소품실 선반 안쪽에서 [묵직한 장식용 수석]이 발견되었습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>용의자 장할배가 자백하기 시작했다.
+잠시만요! 잠시... 해야 할 말이 있습니다.
+맞습니다. 저는 18년 전, 제 아들의 원수인 김리더와, 그의 부인을 죽였습니다. 하지만, 아무 죄 없는 아이들을 마주했을 때, 저 또한 누군가의 소중한 가족을 해쳤다는 사실을 깨닫고 아이들에겐 감히 손대지 못하고 도망쳐 나왔습니다. 이후 숨어 살던 저는, 염치없지만 고아가 된 그 아이들이 잘 지낼지 걱정이 되었고, 그래서 아이들을 찾아 아이들이 입양된 곳을 찾아갔습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://imgur.com/ueO19uF.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">**장할배는 경찰에 구속되어, 2차 토론이 시작될 때까지 토의에 참여할 수 없습니다. 
+용의자 장할배의 범행 자백으로, 중간투표는 생략되고 최종 투표에서 장할배는 추가 1표를 받게됩니다.
+장할배의 신분이 “용의자”에서 “피의자”로 전환되었습니다. 
+</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -339,7 +351,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -359,6 +371,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -663,10 +678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -693,7 +708,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -701,7 +716,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -717,7 +732,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -749,12 +764,12 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="27" x14ac:dyDescent="0.3">
@@ -795,221 +810,231 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="99" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="94.5" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="108" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="54" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="81" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="54" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>11</v>
+      <c r="A31" s="7" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="27" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="27" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="27" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="27" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="27" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" ht="27" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="27" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" ht="27" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="27" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" ht="67.5" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="27" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="94.5" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
+    <row r="45" spans="1:1" ht="94.5" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="66" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
+    <row r="47" spans="1:1" ht="66" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
+    <row r="48" spans="1:1" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="108" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
+    <row r="49" spans="1:1" ht="108" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
+    <row r="51" spans="1:1" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>27</v>
+    <row r="54" spans="1:1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" ht="27" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" ht="27" x14ac:dyDescent="0.3">
-      <c r="A58" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="27" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="27" x14ac:dyDescent="0.3">
+      <c r="A60" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="27" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="27" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1019,9 +1044,10 @@
     <hyperlink ref="A10" r:id="rId1"/>
     <hyperlink ref="A11" r:id="rId2"/>
     <hyperlink ref="A27" r:id="rId3"/>
+    <hyperlink ref="A31" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
